--- a/output/new_predictions.xlsx
+++ b/output/new_predictions.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Predicted Loan Status</t>
+          <t>Loan_Status</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Max Loan Amount</t>
+          <t>Max_Loan_Amount</t>
         </is>
       </c>
     </row>
